--- a/MASTER_MENU/DRAFT/TEMP_XLS.xlsx
+++ b/MASTER_MENU/DRAFT/TEMP_XLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp01\htdocs\SIA\MASTER_MENU\DRAFT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIKADU\MASTER_MENU\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEF17A3-BB67-4479-93B2-300418E9F69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C83414-4E19-4096-9AA5-FE1F395E2D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22215" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{010349E3-DE31-4070-980D-1ACAF47E99DD}"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="21600" windowHeight="11400" xr2:uid="{010349E3-DE31-4070-980D-1ACAF47E99DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>IMPE1001</t>
+  </si>
+  <si>
+    <t>IMPE1002</t>
+  </si>
+  <si>
+    <t>IMPE1003</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,12 +391,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E3B17A-5098-4863-A2B2-2B25D01C7686}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>16</v>
+      </c>
+      <c r="C1">
+        <v>1101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>